--- a/target/classes/data/TestData.xlsx
+++ b/target/classes/data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14535" windowHeight="1980"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="10815" windowHeight="2490" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,19 +12,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>emailID</t>
   </si>
   <si>
-    <t>rahinj.shailesh66@gmail.com</t>
-  </si>
-  <si>
     <t>Invalid EmailID</t>
   </si>
   <si>
@@ -35,6 +31,12 @@
   </si>
   <si>
     <t>dsdsaf565</t>
+  </si>
+  <si>
+    <t>rahinj.shailesh71@gmail.com</t>
+  </si>
+  <si>
+    <t>438974399@</t>
   </si>
 </sst>
 </file>
@@ -390,13 +392,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -405,21 +407,21 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -433,12 +435,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/target/classes/data/TestData.xlsx
+++ b/target/classes/data/TestData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="10815" windowHeight="2490" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="10395" windowHeight="5565"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Locators" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:F7"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>emailID</t>
   </si>
@@ -33,10 +34,22 @@
     <t>dsdsaf565</t>
   </si>
   <si>
-    <t>rahinj.shailesh71@gmail.com</t>
-  </si>
-  <si>
     <t>438974399@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagetitle </t>
+  </si>
+  <si>
+    <t>Locator</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>html/body/main/section[1]/div[2]/div/h1</t>
+  </si>
+  <si>
+    <t>rahinj.shailesh7613@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -392,7 +405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -415,7 +428,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -437,7 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -448,7 +461,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -461,12 +474,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>